--- a/timetable_ECE.xlsx
+++ b/timetable_ECE.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ECE_2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ECE_4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ECE_6" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ECE_8" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ECE_3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ECE_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ECE_4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ECE_6" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ECE_8" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,11 +34,11 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FF0000"/>
       <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FF0000"/>
       <sz val="12"/>
     </font>
   </fonts>
@@ -56,20 +57,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFB6C1"/>
-        <bgColor rgb="00FFB6C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00D3D3D3"/>
         <bgColor rgb="00D3D3D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE0E0"/>
-        <bgColor rgb="00FFE0E0"/>
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
     <fill>
@@ -92,6 +87,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFE0E0"/>
+        <bgColor rgb="00FFE0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF9999"/>
         <bgColor rgb="00FF9999"/>
       </patternFill>
@@ -100,12 +101,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="0099FF99"/>
         <bgColor rgb="0099FF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0087CEFA"/>
-        <bgColor rgb="0087CEFA"/>
       </patternFill>
     </fill>
     <fill>
@@ -122,14 +117,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E6FA"/>
-        <bgColor rgb="00E6E6FA"/>
+        <fgColor rgb="0087CEFA"/>
+        <bgColor rgb="0087CEFA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DDA0DD"/>
         <bgColor rgb="00DDA0DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6E6FA"/>
+        <bgColor rgb="00E6E6FA"/>
       </patternFill>
     </fill>
     <fill>
@@ -185,22 +186,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -209,17 +210,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -243,7 +250,13 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -252,19 +265,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -635,7 +639,434 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>09:00-09:30</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>09:30-10:00</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>10:00-10:30</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>10:30-11:00</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>11:00-11:30</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>11:30-12:00</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>12:00-12:30</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>12:30-13:00</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>13:00-13:30</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>13:30-14:00</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>14:00-14:30</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:00</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>15:00-15:30</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15:30-16:00</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>16:00-16:30</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>16:30-17:00</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>17:00-17:30</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>17:30-18:00</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>18:00-18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="40" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>- LEC
+C104
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>- TUT
+C201
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>- LEC
+C202
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="n"/>
+      <c r="P6" s="6" t="n"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Self-Study Only Courses</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>Subject Code</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>Subject Name</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="25" customHeight="1">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="D16" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="N6:P6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,55 +1204,55 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>- LEC
-C203
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr"/>
-      <c r="G2" s="6" t="inlineStr"/>
-      <c r="H2" s="6" t="inlineStr"/>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="6" t="inlineStr"/>
-      <c r="L2" s="6" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>- LEC
 C201
 Dr.Jagadish D N</t>
         </is>
       </c>
-      <c r="N2" s="3" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="6" t="inlineStr"/>
-      <c r="Q2" s="6" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>- TUT
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr Prakash Pawar (L206+L207)</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t>- LEC
 C204
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
-      <c r="S2" s="4" t="n"/>
-      <c r="T2" s="6" t="inlineStr"/>
+Dr.Jagadish D N</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="n"/>
+      <c r="Q2" s="6" t="n"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -829,229 +1260,235 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>- LEC
-C203
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>- TUT
 C102
 Dr. Sibasankar Padhy</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="6" t="inlineStr"/>
-      <c r="L3" s="6" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="13" t="inlineStr">
+        <is>
+          <t>B4 Courses
+B4-NEW
+B4-NEW: Dr. Shirshendu L (L206+L207)</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="4" t="inlineStr">
+        <is>
+          <t>- LEC
+C204
+Dr. Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>- LEC
+C204
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>- LAB
+L405+L406
+Dr.Jagadish D N</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>- LEC
+C104
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>- LEC
+C205
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>- LEC
 C203
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="4" t="n"/>
-      <c r="P3" s="6" t="inlineStr"/>
-      <c r="Q3" s="6" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>- LEC
-C104
-Dr.Jagadish D N</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>- TUT
-C102
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr"/>
-      <c r="G4" s="6" t="inlineStr"/>
-      <c r="H4" s="6" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>- LEC
-C101
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="4" t="n"/>
-      <c r="N4" s="6" t="inlineStr"/>
-      <c r="O4" s="6" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>- LEC
-C202
 Dr. Rajesh N S</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="6" t="inlineStr"/>
-      <c r="T4" s="6" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr"/>
-      <c r="C5" s="6" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>- LEC
-C202
-Dr. Rajesh N S</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>- LAB
-L106
-Dr.Jagadish D N</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="4" t="n"/>
-      <c r="O5" s="6" t="inlineStr"/>
-      <c r="P5" s="6" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>- LEC
-C201
-Dr. Sibasankar Padhy</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="n"/>
-      <c r="S5" s="4" t="n"/>
-      <c r="T5" s="6" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>- LEC
-C102
+L206+L207
 Dr. Prabhu Prasad</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr"/>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>- LAB
-L106
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="4" t="n"/>
-      <c r="O6" s="6" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr">
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>- LEC
 C202
 Dr. Prabhu Prasad</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="n"/>
-      <c r="R6" s="4" t="n"/>
-      <c r="S6" s="6" t="inlineStr"/>
-      <c r="T6" s="6" t="inlineStr"/>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>- TUT
+C104
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr. Aswath Babu &amp; Pof. Ravi Shankar (L206+L207)</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="6" t="n"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="12" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr. Aswath Babu &amp; Pof. Ravi Shankar (L206+L207)</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="n"/>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="6" t="n"/>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>- LEC
+C104
+Dr. Rajesh N S</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1078,39 +1515,39 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>Unscheduled Components</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>Course Code</t>
         </is>
       </c>
-      <c r="B17" s="9" t="inlineStr">
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>Course Name</t>
         </is>
       </c>
-      <c r="C17" s="9" t="inlineStr">
+      <c r="C17" s="15" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="D17" s="9" t="inlineStr">
+      <c r="D17" s="15" t="inlineStr">
         <is>
           <t>Component</t>
         </is>
       </c>
-      <c r="E17" s="9" t="inlineStr">
+      <c r="E17" s="15" t="inlineStr">
         <is>
           <t>Sessions</t>
         </is>
       </c>
-      <c r="F17" s="9" t="inlineStr">
+      <c r="F17" s="15" t="inlineStr">
         <is>
           <t>Reason</t>
         </is>
@@ -1119,17 +1556,17 @@
     <row r="18">
       <c r="A18" s="10" t="inlineStr">
         <is>
-          <t>B1-HS151</t>
+          <t>B4-NEW</t>
         </is>
       </c>
       <c r="B18" s="10" t="inlineStr">
         <is>
-          <t>Introduction to Personal Finance</t>
+          <t xml:space="preserve">Visual Design – Principles and Application in Product Communication        </t>
         </is>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="D18" s="10" t="inlineStr">
@@ -1149,17 +1586,17 @@
     <row r="19">
       <c r="A19" s="10" t="inlineStr">
         <is>
-          <t>B4-NEW</t>
+          <t>B1-HS151</t>
         </is>
       </c>
       <c r="B19" s="10" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Introduction to Personal Finance</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu L</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="D19" s="10" t="inlineStr">
@@ -1209,17 +1646,17 @@
     <row r="21">
       <c r="A21" s="10" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="B21" s="10" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Introduction to Internet of Things</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid</t>
+          <t>Dr Jagadeesha Bhat</t>
         </is>
       </c>
       <c r="D21" s="10" t="inlineStr">
@@ -1236,215 +1673,186 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="10" t="inlineStr">
-        <is>
-          <t>B1-NEW</t>
-        </is>
-      </c>
-      <c r="B22" s="10" t="inlineStr">
-        <is>
-          <t>Introduction to Internet of Things</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Dr Jagadeesha Bhat</t>
-        </is>
-      </c>
-      <c r="D22" s="10" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10" t="inlineStr">
-        <is>
-          <t>Could not find suitable room and time slot combination</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="12" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>Subject Code</t>
         </is>
       </c>
-      <c r="B27" s="12" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="C27" s="12" t="inlineStr">
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="D27" s="12" t="inlineStr">
+      <c r="D26" s="9" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
+    </row>
+    <row r="27" ht="25" customHeight="1">
+      <c r="A27" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>Computer Architecture</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>Dr.Jagadish D N</t>
+        </is>
+      </c>
+      <c r="D27" s="11" t="inlineStr"/>
     </row>
     <row r="28" ht="25" customHeight="1">
       <c r="A28" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>B3-NEW</t>
         </is>
       </c>
       <c r="B28" s="10" t="inlineStr">
         <is>
-          <t>Computer Architecture</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>Dr.Jagadish D N</t>
-        </is>
-      </c>
-      <c r="D28" s="13" t="inlineStr"/>
+          <t>Dr. Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="D28" s="16" t="inlineStr"/>
     </row>
     <row r="29" ht="25" customHeight="1">
       <c r="A29" s="10" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>B4-NEW</t>
         </is>
       </c>
       <c r="B29" s="10" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="D29" s="14" t="inlineStr"/>
+          <t>Dr. Shirshendu L</t>
+        </is>
+      </c>
+      <c r="D29" s="17" t="inlineStr"/>
     </row>
     <row r="30" ht="25" customHeight="1">
       <c r="A30" s="10" t="inlineStr">
         <is>
-          <t>B4-NEW</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="B30" s="10" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Introduction to Internet of Things</t>
         </is>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu L</t>
-        </is>
-      </c>
-      <c r="D30" s="15" t="inlineStr"/>
+          <t>Dr Jagadeesha Bhat</t>
+        </is>
+      </c>
+      <c r="D30" s="18" t="inlineStr"/>
     </row>
     <row r="31" ht="25" customHeight="1">
       <c r="A31" s="10" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-ASD151</t>
         </is>
       </c>
       <c r="B31" s="10" t="inlineStr">
         <is>
-          <t>Introduction to Internet of Things</t>
+          <t>Introduction to Design</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t>Dr Jagadeesha Bhat</t>
-        </is>
-      </c>
-      <c r="D31" s="16" t="inlineStr"/>
+          <t>Dr. Sandesh P</t>
+        </is>
+      </c>
+      <c r="D31" s="18" t="inlineStr"/>
     </row>
     <row r="32" ht="25" customHeight="1">
       <c r="A32" s="10" t="inlineStr">
         <is>
-          <t>B1-ASD151</t>
+          <t>B1-HS151</t>
         </is>
       </c>
       <c r="B32" s="10" t="inlineStr">
         <is>
-          <t>Introduction to Design</t>
+          <t>Introduction to Personal Finance</t>
         </is>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
-        </is>
-      </c>
-      <c r="D32" s="16" t="inlineStr"/>
+          <t>Dr. Siddharth</t>
+        </is>
+      </c>
+      <c r="D32" s="18" t="inlineStr"/>
     </row>
     <row r="33" ht="25" customHeight="1">
       <c r="A33" s="10" t="inlineStr">
         <is>
-          <t>B1-HS151</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="B33" s="10" t="inlineStr">
         <is>
-          <t>Introduction to Personal Finance</t>
+          <t>Computer Intensive Statistical Methods</t>
         </is>
       </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
-        </is>
-      </c>
-      <c r="D33" s="16" t="inlineStr"/>
-    </row>
-    <row r="34" ht="25" customHeight="1">
-      <c r="A34" s="10" t="inlineStr">
-        <is>
-          <t>B2-NEW</t>
-        </is>
-      </c>
-      <c r="B34" s="10" t="inlineStr">
-        <is>
-          <t>Computer Intensive Statistical Methods</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
           <t>Dr Ramesh Athe</t>
         </is>
       </c>
-      <c r="D34" s="17" t="inlineStr"/>
+      <c r="D33" s="19" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="F5:H5"/>
+  <mergeCells count="17">
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="R3:T3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="P6:R6"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1588,297 +1996,297 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr"/>
-      <c r="C2" s="18" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
+        <is>
+          <t>HS204 LEC
+C202
+Dr. Anushree Kini</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>EC205 LAB
+H109
+Dr. Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>EC205 LEC
+C203
+Dr. Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="n"/>
+      <c r="S2" s="6" t="n"/>
+      <c r="T2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="inlineStr">
+        <is>
+          <t>EC204 LAB
+H109
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="22" t="inlineStr">
         <is>
           <t>MA208 TUT
-C204
+C202
 Dr. Rajib Sharma</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="N3" s="6" t="n"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="21" t="inlineStr">
+        <is>
+          <t>EC204 LEC
+C203
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="23" t="inlineStr">
+        <is>
+          <t>EC310 LEC
+C205
+Dr. Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="23" t="inlineStr">
+        <is>
+          <t>EC310 TUT
+C201
+Dr. Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="22" t="inlineStr">
+        <is>
+          <t>MA208 LEC
+C201
+Dr. Rajib Sharma</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="24" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+L301
+Dr. Jolly Thomas IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="23" t="inlineStr">
+        <is>
+          <t>EC310 LEC
+C205
+Dr. Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>EC205 LEC
-C104
+C202
 Dr. Pankaj Kumar</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="6" t="inlineStr"/>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="6" t="inlineStr"/>
-      <c r="M2" s="6" t="inlineStr"/>
-      <c r="N2" s="19" t="inlineStr">
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="20" t="inlineStr">
         <is>
           <t>HS204 TUT
 C104
 Dr. Anushree Kini</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="18" t="inlineStr">
-        <is>
-          <t>MA208 LEC
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="21" t="inlineStr">
+        <is>
+          <t>EC204 TUT
+C102
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="P5" s="6" t="n"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="21" t="inlineStr">
+        <is>
+          <t>EC204 LEC
 C205
-Dr. Rajib Sharma</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="n"/>
-      <c r="R2" s="4" t="n"/>
-      <c r="S2" s="6" t="inlineStr"/>
-      <c r="T2" s="6" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="19" t="inlineStr">
-        <is>
-          <t>HS204 LEC
-C204
-Dr. Anushree Kini</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>EC204 LEC
-C104
 Dr. Somen Bhattacharjee</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="6" t="inlineStr"/>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="21" t="inlineStr">
+      <c r="S5" s="5" t="n"/>
+      <c r="T5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="24" t="inlineStr">
         <is>
           <t>HS205 LEC
 C201
 Dr. Jolly Thomas IIT Dharwad</t>
         </is>
       </c>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="4" t="n"/>
-      <c r="O3" s="6" t="inlineStr"/>
-      <c r="P3" s="6" t="inlineStr"/>
-      <c r="Q3" s="6" t="inlineStr"/>
-      <c r="R3" s="22" t="inlineStr">
-        <is>
-          <t>EC310 LEC
-C203
-Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr"/>
-      <c r="C4" s="6" t="inlineStr"/>
-      <c r="D4" s="6" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr"/>
-      <c r="G4" s="6" t="inlineStr"/>
-      <c r="H4" s="20" t="inlineStr">
-        <is>
-          <t>EC204 TUT
-C104
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="6" t="inlineStr"/>
-      <c r="M4" s="6" t="inlineStr"/>
-      <c r="N4" s="18" t="inlineStr">
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="22" t="inlineStr">
         <is>
           <t>MA208 LEC
-C102
+C204
 Dr. Rajib Sharma</t>
         </is>
       </c>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="6" t="inlineStr"/>
-      <c r="R4" s="21" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-C104
-Dr. Jolly Thomas IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="S4" s="3" t="n"/>
-      <c r="T4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr"/>
-      <c r="C5" s="6" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>EC205 LAB
-H109
-Dr. Pankaj Kumar</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr"/>
-      <c r="M5" s="6" t="inlineStr"/>
-      <c r="N5" s="6" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>EC205 LEC
+      <c r="M6" s="5" t="n"/>
+      <c r="N6" s="6" t="n"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="20" t="inlineStr">
+        <is>
+          <t>HS204 LEC
 C202
-Dr. Pankaj Kumar</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="6" t="inlineStr"/>
-      <c r="S5" s="22" t="inlineStr">
-        <is>
-          <t>EC310 TUT
-C101
-Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="22" t="inlineStr">
-        <is>
-          <t>EC310 LEC
-C104
-Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="20" t="inlineStr">
-        <is>
-          <t>EC204 LEC
-C104
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="20" t="inlineStr">
-        <is>
-          <t>EC204 LAB
-H109
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="4" t="n"/>
-      <c r="P6" s="6" t="inlineStr"/>
-      <c r="Q6" s="19" t="inlineStr">
-        <is>
-          <t>HS204 LEC
-C203
 Dr. Anushree Kini</t>
         </is>
       </c>
-      <c r="R6" s="3" t="n"/>
-      <c r="S6" s="4" t="n"/>
-      <c r="T6" s="6" t="inlineStr"/>
+      <c r="R6" s="5" t="n"/>
+      <c r="S6" s="6" t="n"/>
+      <c r="T6" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1905,29 +2313,29 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="inlineStr">
+      <c r="A15" s="9" t="inlineStr">
         <is>
           <t>Subject Code</t>
         </is>
       </c>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="9" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="C15" s="12" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
@@ -1949,7 +2357,7 @@
           <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr"/>
+      <c r="D16" s="11" t="inlineStr"/>
     </row>
     <row r="17" ht="25" customHeight="1">
       <c r="A17" s="10" t="inlineStr">
@@ -1967,7 +2375,7 @@
           <t>Dr. Somen Bhattacharjee / Dr. Jagadish D N (Lab)</t>
         </is>
       </c>
-      <c r="D17" s="23" t="inlineStr"/>
+      <c r="D17" s="25" t="inlineStr"/>
     </row>
     <row r="18" ht="25" customHeight="1">
       <c r="A18" s="10" t="inlineStr">
@@ -1985,7 +2393,7 @@
           <t xml:space="preserve">Dr. Rajib Sharma/ Rajesh Kumar </t>
         </is>
       </c>
-      <c r="D18" s="24" t="inlineStr"/>
+      <c r="D18" s="26" t="inlineStr"/>
     </row>
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="10" t="inlineStr">
@@ -2003,7 +2411,7 @@
           <t>Dr. Prakash Pawar</t>
         </is>
       </c>
-      <c r="D19" s="25" t="inlineStr"/>
+      <c r="D19" s="27" t="inlineStr"/>
     </row>
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="10" t="inlineStr">
@@ -2021,7 +2429,7 @@
           <t>Dr. Anushree Kini</t>
         </is>
       </c>
-      <c r="D20" s="26" t="inlineStr"/>
+      <c r="D20" s="28" t="inlineStr"/>
     </row>
     <row r="21" ht="25" customHeight="1">
       <c r="A21" s="10" t="inlineStr">
@@ -2039,40 +2447,40 @@
           <t>Dr. Jolly Thomas IIT Dharwad</t>
         </is>
       </c>
-      <c r="D21" s="27" t="inlineStr"/>
+      <c r="D21" s="29" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:R4"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2210,277 +2618,271 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> B4-DS351 LEC
 L106
 Dr. Ramesh Athe</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="23" t="inlineStr">
+        <is>
+          <t>B3 LEC
+L108
+Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="22" t="inlineStr">
+        <is>
+          <t>B2 LEC
+C102
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> B4-DS351 TUT
+L106
+Dr. Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="P2" s="6" t="n"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">B4 LEC
-L108
+L106
 Dr. Sunil C K </t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="22" t="inlineStr">
-        <is>
-          <t>B3 TUT
-C101
-Dr. Vivekraj V K</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="6" t="inlineStr"/>
-      <c r="O2" s="28" t="inlineStr">
+      <c r="S2" s="5" t="n"/>
+      <c r="T2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="30" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-CS455
+B2-CS455: Dr. Rajendra H (L401)</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> B4-DS351 LEC
+C104
+Dr. Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="31" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-CS464
-B1-CS464: Dr. Chinmayanand (L401)</t>
-        </is>
-      </c>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="22" t="inlineStr">
+B1-CS464: Dr. Chinmayanand (L302)</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="n"/>
+      <c r="N3" s="23" t="inlineStr">
         <is>
           <t>B3 LEC
+L108
+Dr. Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="22" t="inlineStr">
+        <is>
+          <t>B2 LEC
 L106
-Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="n"/>
-      <c r="S2" s="4" t="n"/>
-      <c r="T2" s="6" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="22" t="inlineStr">
-        <is>
-          <t>B3 LEC
+Dr. Aswath B</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr">
+        <is>
+          <t>B3 TUT
 L106
 Dr. Vivekraj V K</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>B4 LAB
-L107
-Dr. Girish G N</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="6" t="inlineStr"/>
-      <c r="M3" s="18" t="inlineStr">
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="23" t="inlineStr">
+        <is>
+          <t>B3 LEC
+L108
+Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="22" t="inlineStr">
         <is>
           <t>B2 LEC
-L107
+L108
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="6" t="n"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="22" t="inlineStr">
+        <is>
+          <t>B2 LEC
+L108
 Dr. Aswath B</t>
         </is>
       </c>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="4" t="n"/>
-      <c r="P3" s="6" t="inlineStr"/>
-      <c r="Q3" s="20" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-C205
-Dr. Rajib Sharma</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="4" t="n"/>
-      <c r="T3" s="6" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="R4" s="5" t="n"/>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="31" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464
+B1-CS464: Dr. Chinmayanand (L303)</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>B3 LEC
-C104
-Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> B4-DS351 TUT
 L108
-Dr. Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="29" t="inlineStr">
+Dr. Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="30" t="inlineStr">
         <is>
           <t>B2 Courses
-B2-NEW
-B2-NEW: Dr. Sandesh P (L304)</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="22" t="inlineStr">
-        <is>
-          <t>B3 LEC
-C104
-Dr. Vivekraj V K</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="28" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-NEW
-B1-NEW: Prof. SRM Prasanna (L303)</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="20" t="inlineStr">
+B2-EC361
+B2-EC361: Dr. Jagadeesha R Bhat (L305)</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="21" t="inlineStr">
         <is>
           <t>CS307 LEC
 C203
 Dr. Rajib Sharma</t>
         </is>
       </c>
-      <c r="R4" s="3" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="6" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="18" t="inlineStr">
-        <is>
-          <t>B2 LEC
-L106
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr"/>
-      <c r="G5" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> B4-DS351 LEC
-L106
-Dr. Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>B4 LEC
-L107
-Dr. Girish G N</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="4" t="n"/>
-      <c r="O5" s="30" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-CS307
-B3-CS307: Dr. Deepak K T (L305)</t>
-        </is>
-      </c>
-      <c r="P5" s="4" t="n"/>
-      <c r="Q5" s="22" t="inlineStr">
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="6" t="n"/>
+      <c r="Q5" s="23" t="inlineStr">
         <is>
           <t>B3 TUT
-L107
+L108
 Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
         </is>
       </c>
-      <c r="R5" s="4" t="n"/>
-      <c r="S5" s="28" t="inlineStr">
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="31" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-CS458
-B1-CS458: Dr. Krishnendu (L302)</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="n"/>
+B1-CS458: Dr. Krishnendu (L304)</t>
+        </is>
+      </c>
+      <c r="T5" s="6" t="n"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -2488,67 +2890,67 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+L301
+Dr. Rajib Sharma</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>B4 LEC
+L108
+Dr. Girish G N</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>B4 LAB
+L405+L406
+Dr. Girish G N</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="n"/>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="6" t="n"/>
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">B4 TUT
 L106
 Dr. Sunil C K </t>
         </is>
       </c>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">B4 LEC
-L107
+L106
 Dr. Sunil C K </t>
         </is>
       </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="29" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-EC361
-B2-EC361: Dr. Jagadeesha R Bhat (L403)</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="n"/>
-      <c r="N6" s="18" t="inlineStr">
-        <is>
-          <t>B2 LEC
-L108
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="4" t="n"/>
-      <c r="Q6" s="6" t="inlineStr"/>
-      <c r="R6" s="18" t="inlineStr">
-        <is>
-          <t>B2 LEC
-C104
-Dr. Aswath B</t>
-        </is>
-      </c>
-      <c r="S6" s="3" t="n"/>
-      <c r="T6" s="4" t="n"/>
+      <c r="S6" s="5" t="n"/>
+      <c r="T6" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2592,39 +2994,39 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="14" t="inlineStr">
         <is>
           <t>Unscheduled Components</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="inlineStr">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>Course Code</t>
         </is>
       </c>
-      <c r="B18" s="9" t="inlineStr">
+      <c r="B18" s="15" t="inlineStr">
         <is>
           <t>Course Name</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
+      <c r="D18" s="15" t="inlineStr">
         <is>
           <t>Component</t>
         </is>
       </c>
-      <c r="E18" s="9" t="inlineStr">
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>Sessions</t>
         </is>
       </c>
-      <c r="F18" s="9" t="inlineStr">
+      <c r="F18" s="15" t="inlineStr">
         <is>
           <t>Reason</t>
         </is>
@@ -2633,22 +3035,22 @@
     <row r="19">
       <c r="A19" s="10" t="inlineStr">
         <is>
-          <t>B1-CS464</t>
+          <t>B3-CS307</t>
         </is>
       </c>
       <c r="B19" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deep Learning for Computer Vision </t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Dr. Chinmayanand</t>
+          <t>Dr. Deepak K T</t>
         </is>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>TUT</t>
         </is>
       </c>
       <c r="E19" s="10" t="n">
@@ -2663,17 +3065,17 @@
     <row r="20">
       <c r="A20" s="10" t="inlineStr">
         <is>
-          <t>B3-CS307</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="B20" s="10" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Design Thinking and Innovation</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>Dr. Deepak K T</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="D20" s="10" t="inlineStr">
@@ -2723,22 +3125,22 @@
     <row r="22">
       <c r="A22" s="10" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="B22" s="10" t="inlineStr">
         <is>
-          <t>Large Languange Models</t>
+          <t>Design Thinking and Innovation</t>
         </is>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>Dr. Sunil S</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="D22" s="10" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>TUT</t>
         </is>
       </c>
       <c r="E22" s="10" t="n">
@@ -2753,17 +3155,17 @@
     <row r="23">
       <c r="A23" s="10" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B1-CS458</t>
         </is>
       </c>
       <c r="B23" s="10" t="inlineStr">
         <is>
-          <t>Design Thinking and Innovation</t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr">
@@ -2783,17 +3185,17 @@
     <row r="24">
       <c r="A24" s="10" t="inlineStr">
         <is>
-          <t>B2-EC361</t>
+          <t>B1-CS464</t>
         </is>
       </c>
       <c r="B24" s="10" t="inlineStr">
         <is>
-          <t>Introduction to 5G Network</t>
+          <t xml:space="preserve">Deep Learning for Computer Vision </t>
         </is>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Chinmayanand</t>
         </is>
       </c>
       <c r="D24" s="10" t="inlineStr">
@@ -2813,17 +3215,17 @@
     <row r="25">
       <c r="A25" s="10" t="inlineStr">
         <is>
-          <t>B2-CS455</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="B25" s="10" t="inlineStr">
         <is>
-          <t>Blockchain Technology</t>
+          <t>Large Languange Models</t>
         </is>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Sunil S</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr">
@@ -2843,17 +3245,17 @@
     <row r="26">
       <c r="A26" s="10" t="inlineStr">
         <is>
-          <t>B1-CS458</t>
+          <t>B2-EC361</t>
         </is>
       </c>
       <c r="B26" s="10" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Introduction to 5G Network</t>
         </is>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
@@ -2870,303 +3272,392 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="10" t="inlineStr">
+        <is>
+          <t>B1-NEW</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>Deep Speech Processing</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>Prof. SRM Prasanna</t>
+        </is>
+      </c>
+      <c r="D27" s="10" t="inlineStr">
+        <is>
+          <t>TUT</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>Could not find suitable slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>B3-CS307</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>Dr. Deepak K T</t>
+        </is>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>LEC</t>
+        </is>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="inlineStr">
+        <is>
+          <t>Could not find suitable slot</t>
+        </is>
+      </c>
+    </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="10" t="inlineStr">
+        <is>
+          <t>B2-CS455</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t>Blockchain Technology</t>
+        </is>
+      </c>
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>Dr. Rajendra H</t>
+        </is>
+      </c>
+      <c r="D29" s="10" t="inlineStr">
+        <is>
+          <t>LEC</t>
+        </is>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10" t="inlineStr">
+        <is>
+          <t>Could not find suitable slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="12" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>Subject Code</t>
         </is>
       </c>
-      <c r="B31" s="12" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="C31" s="12" t="inlineStr">
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="D31" s="12" t="inlineStr">
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-    </row>
-    <row r="32" ht="25" customHeight="1">
-      <c r="A32" s="10" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="B32" s="10" t="inlineStr">
-        <is>
-          <t>Medical Image Analysis</t>
-        </is>
-      </c>
-      <c r="C32" s="10" t="inlineStr">
-        <is>
-          <t>Dr. Girish G N</t>
-        </is>
-      </c>
-      <c r="D32" s="13" t="inlineStr"/>
-    </row>
-    <row r="33" ht="25" customHeight="1">
-      <c r="A33" s="10" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="B33" s="10" t="inlineStr">
-        <is>
-          <t>Wireless Communication</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="inlineStr">
-        <is>
-          <t>Dr. Rajib Sharma/ Dr. Rao (Lab)</t>
-        </is>
-      </c>
-      <c r="D33" s="23" t="inlineStr"/>
-    </row>
-    <row r="34" ht="25" customHeight="1">
-      <c r="A34" s="10" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="B34" s="10" t="inlineStr">
-        <is>
-          <t>Model Checking</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="D34" s="24" t="inlineStr"/>
     </row>
     <row r="35" ht="25" customHeight="1">
       <c r="A35" s="10" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="B35" s="10" t="inlineStr">
         <is>
-          <t>Automotive Embedded and Multimedia Systems/Microwave Engineering/Computer Graphics/Machine learning/Virtualization and Cloud Computing</t>
+          <t>Medical Image Analysis</t>
         </is>
       </c>
       <c r="C35" s="10" t="inlineStr">
         <is>
-          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)/Dr. Somen/Dr. Vivekraj V K/Dr. Deepak KT/Dr Malay</t>
-        </is>
-      </c>
-      <c r="D35" s="25" t="inlineStr"/>
+          <t>Dr. Girish G N</t>
+        </is>
+      </c>
+      <c r="D35" s="11" t="inlineStr"/>
     </row>
     <row r="36" ht="25" customHeight="1">
       <c r="A36" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> B4-DS351</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B36" s="10" t="inlineStr">
         <is>
-          <t>Statistics for Health Technology</t>
+          <t>Wireless Communication</t>
         </is>
       </c>
       <c r="C36" s="10" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="D36" s="26" t="inlineStr"/>
+          <t>Dr. Rajib Sharma/ Dr. Rao (Lab)</t>
+        </is>
+      </c>
+      <c r="D36" s="25" t="inlineStr"/>
     </row>
     <row r="37" ht="25" customHeight="1">
       <c r="A37" s="10" t="inlineStr">
         <is>
-          <t>B1-CS464</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="B37" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deep Learning for Computer Vision </t>
+          <t>Model Checking</t>
         </is>
       </c>
       <c r="C37" s="10" t="inlineStr">
         <is>
-          <t>Dr. Chinmayanand</t>
-        </is>
-      </c>
-      <c r="D37" s="16" t="inlineStr"/>
+          <t>Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="D37" s="26" t="inlineStr"/>
     </row>
     <row r="38" ht="25" customHeight="1">
       <c r="A38" s="10" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="B38" s="10" t="inlineStr">
         <is>
-          <t>Large Languange Models</t>
+          <t>Automotive Embedded and Multimedia Systems/Microwave Engineering/Computer Graphics/Machine learning/Virtualization and Cloud Computing</t>
         </is>
       </c>
       <c r="C38" s="10" t="inlineStr">
         <is>
-          <t>Dr. Sunil S</t>
-        </is>
-      </c>
-      <c r="D38" s="16" t="inlineStr"/>
+          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)/Dr. Somen/Dr. Vivekraj V K/Dr. Deepak KT/Dr Malay</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr"/>
     </row>
     <row r="39" ht="25" customHeight="1">
       <c r="A39" s="10" t="inlineStr">
         <is>
-          <t>B2-CS455</t>
+          <t xml:space="preserve"> B4-DS351</t>
         </is>
       </c>
       <c r="B39" s="10" t="inlineStr">
         <is>
-          <t>Blockchain Technology</t>
+          <t>Statistics for Health Technology</t>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
-        </is>
-      </c>
-      <c r="D39" s="17" t="inlineStr"/>
+          <t>Dr. Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="D39" s="28" t="inlineStr"/>
     </row>
     <row r="40" ht="25" customHeight="1">
       <c r="A40" s="10" t="inlineStr">
         <is>
-          <t>B2-EC361</t>
+          <t>B1-CS464</t>
         </is>
       </c>
       <c r="B40" s="10" t="inlineStr">
         <is>
-          <t>Introduction to 5G Network</t>
+          <t xml:space="preserve">Deep Learning for Computer Vision </t>
         </is>
       </c>
       <c r="C40" s="10" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
-        </is>
-      </c>
-      <c r="D40" s="17" t="inlineStr"/>
+          <t>Dr. Chinmayanand</t>
+        </is>
+      </c>
+      <c r="D40" s="18" t="inlineStr"/>
     </row>
     <row r="41" ht="25" customHeight="1">
       <c r="A41" s="10" t="inlineStr">
         <is>
-          <t>B1-CS458</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="B41" s="10" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Large Languange Models</t>
         </is>
       </c>
       <c r="C41" s="10" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
-        </is>
-      </c>
-      <c r="D41" s="16" t="inlineStr"/>
+          <t>Dr. Sunil S</t>
+        </is>
+      </c>
+      <c r="D41" s="18" t="inlineStr"/>
     </row>
     <row r="42" ht="25" customHeight="1">
       <c r="A42" s="10" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B2-CS455</t>
         </is>
       </c>
       <c r="B42" s="10" t="inlineStr">
         <is>
-          <t>Design Thinking and Innovation</t>
+          <t>Blockchain Technology</t>
         </is>
       </c>
       <c r="C42" s="10" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
-        </is>
-      </c>
-      <c r="D42" s="17" t="inlineStr"/>
+          <t>Dr. Rajendra H</t>
+        </is>
+      </c>
+      <c r="D42" s="19" t="inlineStr"/>
     </row>
     <row r="43" ht="25" customHeight="1">
       <c r="A43" s="10" t="inlineStr">
         <is>
-          <t>B3-CS307</t>
+          <t>B2-EC361</t>
         </is>
       </c>
       <c r="B43" s="10" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Introduction to 5G Network</t>
         </is>
       </c>
       <c r="C43" s="10" t="inlineStr">
         <is>
-          <t>Dr. Deepak K T</t>
-        </is>
-      </c>
-      <c r="D43" s="14" t="inlineStr"/>
+          <t>Dr. Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="D43" s="19" t="inlineStr"/>
     </row>
     <row r="44" ht="25" customHeight="1">
       <c r="A44" s="10" t="inlineStr">
         <is>
+          <t>B1-CS458</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Natural Language Processing</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Dr. Krishnendu</t>
+        </is>
+      </c>
+      <c r="D44" s="18" t="inlineStr"/>
+    </row>
+    <row r="45" ht="25" customHeight="1">
+      <c r="A45" s="10" t="inlineStr">
+        <is>
+          <t>B2-NEW</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="inlineStr">
+        <is>
+          <t>Design Thinking and Innovation</t>
+        </is>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>Dr. Sandesh P</t>
+        </is>
+      </c>
+      <c r="D45" s="19" t="inlineStr"/>
+    </row>
+    <row r="46" ht="25" customHeight="1">
+      <c r="A46" s="10" t="inlineStr">
+        <is>
+          <t>B3-CS307</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C46" s="10" t="inlineStr">
+        <is>
+          <t>Dr. Deepak K T</t>
+        </is>
+      </c>
+      <c r="D46" s="16" t="inlineStr"/>
+    </row>
+    <row r="47" ht="25" customHeight="1">
+      <c r="A47" s="10" t="inlineStr">
+        <is>
           <t>Mini Project 1</t>
         </is>
       </c>
-      <c r="B44" s="10" t="inlineStr">
+      <c r="B47" s="10" t="inlineStr">
         <is>
           <t>Mini Project 1</t>
         </is>
       </c>
-      <c r="C44" s="10" t="inlineStr">
+      <c r="C47" s="10" t="inlineStr">
         <is>
           <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
-      <c r="D44" s="31" t="inlineStr"/>
+      <c r="D47" s="32" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="L5:N5"/>
+  <mergeCells count="25">
     <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3310,37 +3801,37 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr"/>
-      <c r="C2" s="6" t="inlineStr"/>
-      <c r="D2" s="6" t="inlineStr"/>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr"/>
-      <c r="G2" s="6" t="inlineStr"/>
-      <c r="H2" s="6" t="inlineStr"/>
-      <c r="I2" s="6" t="inlineStr"/>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="6" t="inlineStr"/>
-      <c r="M2" s="6" t="inlineStr"/>
-      <c r="N2" s="6" t="inlineStr"/>
-      <c r="O2" s="6" t="inlineStr"/>
-      <c r="P2" s="6" t="inlineStr"/>
-      <c r="Q2" s="6" t="inlineStr"/>
-      <c r="R2" s="6" t="inlineStr"/>
-      <c r="S2" s="6" t="inlineStr"/>
-      <c r="T2" s="6" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -3348,37 +3839,37 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr"/>
-      <c r="C3" s="6" t="inlineStr"/>
-      <c r="D3" s="6" t="inlineStr"/>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr"/>
-      <c r="G3" s="6" t="inlineStr"/>
-      <c r="H3" s="6" t="inlineStr"/>
-      <c r="I3" s="6" t="inlineStr"/>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="6" t="inlineStr"/>
-      <c r="M3" s="6" t="inlineStr"/>
-      <c r="N3" s="6" t="inlineStr"/>
-      <c r="O3" s="6" t="inlineStr"/>
-      <c r="P3" s="6" t="inlineStr"/>
-      <c r="Q3" s="6" t="inlineStr"/>
-      <c r="R3" s="6" t="inlineStr"/>
-      <c r="S3" s="6" t="inlineStr"/>
-      <c r="T3" s="6" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr"/>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -3386,37 +3877,37 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr"/>
-      <c r="C4" s="6" t="inlineStr"/>
-      <c r="D4" s="6" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr"/>
-      <c r="G4" s="6" t="inlineStr"/>
-      <c r="H4" s="6" t="inlineStr"/>
-      <c r="I4" s="6" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="6" t="inlineStr"/>
-      <c r="M4" s="6" t="inlineStr"/>
-      <c r="N4" s="6" t="inlineStr"/>
-      <c r="O4" s="6" t="inlineStr"/>
-      <c r="P4" s="6" t="inlineStr"/>
-      <c r="Q4" s="6" t="inlineStr"/>
-      <c r="R4" s="6" t="inlineStr"/>
-      <c r="S4" s="6" t="inlineStr"/>
-      <c r="T4" s="6" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr"/>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -3424,37 +3915,37 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr"/>
-      <c r="C5" s="6" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr"/>
-      <c r="G5" s="6" t="inlineStr"/>
-      <c r="H5" s="6" t="inlineStr"/>
-      <c r="I5" s="6" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr"/>
-      <c r="M5" s="6" t="inlineStr"/>
-      <c r="N5" s="6" t="inlineStr"/>
-      <c r="O5" s="6" t="inlineStr"/>
-      <c r="P5" s="6" t="inlineStr"/>
-      <c r="Q5" s="6" t="inlineStr"/>
-      <c r="R5" s="6" t="inlineStr"/>
-      <c r="S5" s="6" t="inlineStr"/>
-      <c r="T5" s="6" t="inlineStr"/>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -3462,37 +3953,37 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr"/>
-      <c r="C6" s="6" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr"/>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="6" t="inlineStr"/>
-      <c r="M6" s="6" t="inlineStr"/>
-      <c r="N6" s="6" t="inlineStr"/>
-      <c r="O6" s="6" t="inlineStr"/>
-      <c r="P6" s="6" t="inlineStr"/>
-      <c r="Q6" s="6" t="inlineStr"/>
-      <c r="R6" s="6" t="inlineStr"/>
-      <c r="S6" s="6" t="inlineStr"/>
-      <c r="T6" s="6" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3536,29 +4027,29 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="inlineStr">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t>Subject Code</t>
         </is>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="C16" s="12" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="D16" s="12" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
@@ -3580,7 +4071,7 @@
           <t>Dr. Rajesh Kumar</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr"/>
+      <c r="D17" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
